--- a/case.xlsx
+++ b/case.xlsx
@@ -4,12 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15615" windowWidth="30540"/>
+    <workbookView windowHeight="11790" windowWidth="20325"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" r:id="rId1" sheetId="1"/>
-    <sheet name="Sheet2" r:id="rId2" sheetId="2"/>
-    <sheet name="Sheet3" r:id="rId3" sheetId="3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -803,7 +801,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="37">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -842,6 +840,30 @@
     </xf>
     <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="top"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="0" numFmtId="22" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="0" numFmtId="2" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="34" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" borderId="18" fillId="0" fontId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="0" numFmtId="22" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="0" numFmtId="2" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyBorder="true" applyFill="true" borderId="18" fillId="34" fontId="0" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1239,15 +1261,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <sheetPr/>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="J1" sqref="J1:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1259,11 +1281,8 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1273,9 +1292,6 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
@@ -1812,38 +1828,4 @@
   <pageSetup orientation="portrait" paperSize="9"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
-  <headerFooter/>
-</worksheet>
 </file>